--- a/StatisticsTests/ExcelTesting/ExcelData/LogPearsonIII.xlsx
+++ b/StatisticsTests/ExcelTesting/ExcelData/LogPearsonIII.xlsx
@@ -17484,7 +17484,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H8" s="11">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I8" s="7">
         <x:f>'Inverse CDF'!I9</x:f>
@@ -17547,7 +17547,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H12" s="11">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I12" s="7">
         <x:f>'Inverse CDF'!I46</x:f>
@@ -17610,7 +17610,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H16" s="11">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I16" s="7">
         <x:f>'Inverse CDF'!I83</x:f>
@@ -17673,7 +17673,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H20" s="11">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I20" s="7">
         <x:f>'Inverse CDF'!I120</x:f>
@@ -17738,7 +17738,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H24" s="59">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I24" s="7">
         <x:f>'Inverse CDF'!I157</x:f>
@@ -17801,7 +17801,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H28" s="11">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I28" s="7">
         <x:f>'Inverse CDF'!I194</x:f>
@@ -29423,7 +29423,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H8" s="11">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I8" s="7">
         <x:f>'Inverse CDF'!I41</x:f>
@@ -29499,7 +29499,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H12" s="11">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I12" s="7">
         <x:f>'Inverse CDF'!I78</x:f>
@@ -29566,7 +29566,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H16" s="11">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I16" s="7">
         <x:f>'Inverse CDF'!I115</x:f>
@@ -29633,7 +29633,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H20" s="11">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I20" s="7">
         <x:f>'Inverse CDF'!I152</x:f>
@@ -29700,7 +29700,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H24" s="11">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I24" s="7">
         <x:f>'Inverse CDF'!I189</x:f>
@@ -29767,7 +29767,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H28" s="11">
-        <x:v>44428.6881944444</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I28" s="7">
         <x:f>'Inverse CDF'!I226</x:f>
